--- a/Excel Dataframes, EDA and Predictive Modelling/EPL_Home_Away.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/EPL_Home_Away.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,51 @@
           <t>PPG</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>QS</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>QSC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BTTS%</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Blank%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CS%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>FG%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>FC%</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -511,6 +556,33 @@
       <c r="I2" t="n">
         <v>2.58</v>
       </c>
+      <c r="J2" t="n">
+        <v>409</v>
+      </c>
+      <c r="K2" t="n">
+        <v>174</v>
+      </c>
+      <c r="L2" t="n">
+        <v>75</v>
+      </c>
+      <c r="M2" t="n">
+        <v>30</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -542,6 +614,33 @@
       <c r="I3" t="n">
         <v>2.58</v>
       </c>
+      <c r="J3" t="n">
+        <v>284</v>
+      </c>
+      <c r="K3" t="n">
+        <v>165</v>
+      </c>
+      <c r="L3" t="n">
+        <v>54</v>
+      </c>
+      <c r="M3" t="n">
+        <v>30</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -573,6 +672,33 @@
       <c r="I4" t="n">
         <v>2.58</v>
       </c>
+      <c r="J4" t="n">
+        <v>312</v>
+      </c>
+      <c r="K4" t="n">
+        <v>132</v>
+      </c>
+      <c r="L4" t="n">
+        <v>51</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -604,6 +730,33 @@
       <c r="I5" t="n">
         <v>2.37</v>
       </c>
+      <c r="J5" t="n">
+        <v>332</v>
+      </c>
+      <c r="K5" t="n">
+        <v>145</v>
+      </c>
+      <c r="L5" t="n">
+        <v>62</v>
+      </c>
+      <c r="M5" t="n">
+        <v>24</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -635,6 +788,33 @@
       <c r="I6" t="n">
         <v>2.05</v>
       </c>
+      <c r="J6" t="n">
+        <v>342</v>
+      </c>
+      <c r="K6" t="n">
+        <v>200</v>
+      </c>
+      <c r="L6" t="n">
+        <v>71</v>
+      </c>
+      <c r="M6" t="n">
+        <v>23</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -666,6 +846,33 @@
       <c r="I7" t="n">
         <v>2</v>
       </c>
+      <c r="J7" t="n">
+        <v>331</v>
+      </c>
+      <c r="K7" t="n">
+        <v>247</v>
+      </c>
+      <c r="L7" t="n">
+        <v>52</v>
+      </c>
+      <c r="M7" t="n">
+        <v>31</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -697,6 +904,33 @@
       <c r="I8" t="n">
         <v>1.95</v>
       </c>
+      <c r="J8" t="n">
+        <v>326</v>
+      </c>
+      <c r="K8" t="n">
+        <v>245</v>
+      </c>
+      <c r="L8" t="n">
+        <v>49</v>
+      </c>
+      <c r="M8" t="n">
+        <v>43</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -728,6 +962,33 @@
       <c r="I9" t="n">
         <v>1.85</v>
       </c>
+      <c r="J9" t="n">
+        <v>235</v>
+      </c>
+      <c r="K9" t="n">
+        <v>287</v>
+      </c>
+      <c r="L9" t="n">
+        <v>32</v>
+      </c>
+      <c r="M9" t="n">
+        <v>37</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -759,6 +1020,33 @@
       <c r="I10" t="n">
         <v>1.84</v>
       </c>
+      <c r="J10" t="n">
+        <v>381</v>
+      </c>
+      <c r="K10" t="n">
+        <v>191</v>
+      </c>
+      <c r="L10" t="n">
+        <v>54</v>
+      </c>
+      <c r="M10" t="n">
+        <v>31</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -790,6 +1078,33 @@
       <c r="I11" t="n">
         <v>1.74</v>
       </c>
+      <c r="J11" t="n">
+        <v>228</v>
+      </c>
+      <c r="K11" t="n">
+        <v>279</v>
+      </c>
+      <c r="L11" t="n">
+        <v>36</v>
+      </c>
+      <c r="M11" t="n">
+        <v>38</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -821,6 +1136,33 @@
       <c r="I12" t="n">
         <v>1.53</v>
       </c>
+      <c r="J12" t="n">
+        <v>266</v>
+      </c>
+      <c r="K12" t="n">
+        <v>229</v>
+      </c>
+      <c r="L12" t="n">
+        <v>38</v>
+      </c>
+      <c r="M12" t="n">
+        <v>46</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -852,6 +1194,33 @@
       <c r="I13" t="n">
         <v>1.37</v>
       </c>
+      <c r="J13" t="n">
+        <v>255</v>
+      </c>
+      <c r="K13" t="n">
+        <v>195</v>
+      </c>
+      <c r="L13" t="n">
+        <v>25</v>
+      </c>
+      <c r="M13" t="n">
+        <v>26</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -883,6 +1252,33 @@
       <c r="I14" t="n">
         <v>1.37</v>
       </c>
+      <c r="J14" t="n">
+        <v>273</v>
+      </c>
+      <c r="K14" t="n">
+        <v>246</v>
+      </c>
+      <c r="L14" t="n">
+        <v>51</v>
+      </c>
+      <c r="M14" t="n">
+        <v>42</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -914,6 +1310,33 @@
       <c r="I15" t="n">
         <v>1.32</v>
       </c>
+      <c r="J15" t="n">
+        <v>221</v>
+      </c>
+      <c r="K15" t="n">
+        <v>253</v>
+      </c>
+      <c r="L15" t="n">
+        <v>28</v>
+      </c>
+      <c r="M15" t="n">
+        <v>34</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -945,6 +1368,33 @@
       <c r="I16" t="n">
         <v>1.22</v>
       </c>
+      <c r="J16" t="n">
+        <v>215</v>
+      </c>
+      <c r="K16" t="n">
+        <v>241</v>
+      </c>
+      <c r="L16" t="n">
+        <v>31</v>
+      </c>
+      <c r="M16" t="n">
+        <v>33</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -976,6 +1426,33 @@
       <c r="I17" t="n">
         <v>1.17</v>
       </c>
+      <c r="J17" t="n">
+        <v>277</v>
+      </c>
+      <c r="K17" t="n">
+        <v>221</v>
+      </c>
+      <c r="L17" t="n">
+        <v>49</v>
+      </c>
+      <c r="M17" t="n">
+        <v>33</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1007,6 +1484,33 @@
       <c r="I18" t="n">
         <v>1.05</v>
       </c>
+      <c r="J18" t="n">
+        <v>280</v>
+      </c>
+      <c r="K18" t="n">
+        <v>227</v>
+      </c>
+      <c r="L18" t="n">
+        <v>47</v>
+      </c>
+      <c r="M18" t="n">
+        <v>30</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1038,6 +1542,33 @@
       <c r="I19" t="n">
         <v>0.85</v>
       </c>
+      <c r="J19" t="n">
+        <v>183</v>
+      </c>
+      <c r="K19" t="n">
+        <v>186</v>
+      </c>
+      <c r="L19" t="n">
+        <v>24</v>
+      </c>
+      <c r="M19" t="n">
+        <v>34</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1069,6 +1600,33 @@
       <c r="I20" t="n">
         <v>0.62</v>
       </c>
+      <c r="J20" t="n">
+        <v>144</v>
+      </c>
+      <c r="K20" t="n">
+        <v>231</v>
+      </c>
+      <c r="L20" t="n">
+        <v>23</v>
+      </c>
+      <c r="M20" t="n">
+        <v>44</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1099,6 +1657,33 @@
       </c>
       <c r="I21" t="n">
         <v>0.38</v>
+      </c>
+      <c r="J21" t="n">
+        <v>158</v>
+      </c>
+      <c r="K21" t="n">
+        <v>167</v>
+      </c>
+      <c r="L21" t="n">
+        <v>18</v>
+      </c>
+      <c r="M21" t="n">
+        <v>26</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1166,6 +1751,51 @@
           <t>PPG</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>QS</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>QSC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BTTS%</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Blank%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CS%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>FG%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>FC%</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1197,6 +1827,33 @@
       <c r="I2" t="n">
         <v>2.16</v>
       </c>
+      <c r="J2" t="n">
+        <v>328</v>
+      </c>
+      <c r="K2" t="n">
+        <v>174</v>
+      </c>
+      <c r="L2" t="n">
+        <v>56</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1228,6 +1885,33 @@
       <c r="I3" t="n">
         <v>1.84</v>
       </c>
+      <c r="J3" t="n">
+        <v>282</v>
+      </c>
+      <c r="K3" t="n">
+        <v>232</v>
+      </c>
+      <c r="L3" t="n">
+        <v>52</v>
+      </c>
+      <c r="M3" t="n">
+        <v>43</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1259,6 +1943,33 @@
       <c r="I4" t="n">
         <v>1.79</v>
       </c>
+      <c r="J4" t="n">
+        <v>269</v>
+      </c>
+      <c r="K4" t="n">
+        <v>207</v>
+      </c>
+      <c r="L4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1290,6 +2001,33 @@
       <c r="I5" t="n">
         <v>1.53</v>
       </c>
+      <c r="J5" t="n">
+        <v>273</v>
+      </c>
+      <c r="K5" t="n">
+        <v>329</v>
+      </c>
+      <c r="L5" t="n">
+        <v>36</v>
+      </c>
+      <c r="M5" t="n">
+        <v>41</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1321,6 +2059,33 @@
       <c r="I6" t="n">
         <v>1.42</v>
       </c>
+      <c r="J6" t="n">
+        <v>240</v>
+      </c>
+      <c r="K6" t="n">
+        <v>241</v>
+      </c>
+      <c r="L6" t="n">
+        <v>39</v>
+      </c>
+      <c r="M6" t="n">
+        <v>48</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1352,6 +2117,33 @@
       <c r="I7" t="n">
         <v>1.32</v>
       </c>
+      <c r="J7" t="n">
+        <v>238</v>
+      </c>
+      <c r="K7" t="n">
+        <v>320</v>
+      </c>
+      <c r="L7" t="n">
+        <v>40</v>
+      </c>
+      <c r="M7" t="n">
+        <v>44</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1383,6 +2175,33 @@
       <c r="I8" t="n">
         <v>1.32</v>
       </c>
+      <c r="J8" t="n">
+        <v>249</v>
+      </c>
+      <c r="K8" t="n">
+        <v>271</v>
+      </c>
+      <c r="L8" t="n">
+        <v>35</v>
+      </c>
+      <c r="M8" t="n">
+        <v>49</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1414,6 +2233,33 @@
       <c r="I9" t="n">
         <v>1.26</v>
       </c>
+      <c r="J9" t="n">
+        <v>251</v>
+      </c>
+      <c r="K9" t="n">
+        <v>307</v>
+      </c>
+      <c r="L9" t="n">
+        <v>35</v>
+      </c>
+      <c r="M9" t="n">
+        <v>42</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1445,6 +2291,33 @@
       <c r="I10" t="n">
         <v>1.21</v>
       </c>
+      <c r="J10" t="n">
+        <v>221</v>
+      </c>
+      <c r="K10" t="n">
+        <v>343</v>
+      </c>
+      <c r="L10" t="n">
+        <v>35</v>
+      </c>
+      <c r="M10" t="n">
+        <v>55</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1476,6 +2349,33 @@
       <c r="I11" t="n">
         <v>1.21</v>
       </c>
+      <c r="J11" t="n">
+        <v>228</v>
+      </c>
+      <c r="K11" t="n">
+        <v>292</v>
+      </c>
+      <c r="L11" t="n">
+        <v>41</v>
+      </c>
+      <c r="M11" t="n">
+        <v>47</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1507,6 +2407,33 @@
       <c r="I12" t="n">
         <v>1.16</v>
       </c>
+      <c r="J12" t="n">
+        <v>216</v>
+      </c>
+      <c r="K12" t="n">
+        <v>288</v>
+      </c>
+      <c r="L12" t="n">
+        <v>42</v>
+      </c>
+      <c r="M12" t="n">
+        <v>44</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1538,6 +2465,33 @@
       <c r="I13" t="n">
         <v>1.16</v>
       </c>
+      <c r="J13" t="n">
+        <v>259</v>
+      </c>
+      <c r="K13" t="n">
+        <v>248</v>
+      </c>
+      <c r="L13" t="n">
+        <v>45</v>
+      </c>
+      <c r="M13" t="n">
+        <v>33</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1569,6 +2523,33 @@
       <c r="I14" t="n">
         <v>1.05</v>
       </c>
+      <c r="J14" t="n">
+        <v>213</v>
+      </c>
+      <c r="K14" t="n">
+        <v>245</v>
+      </c>
+      <c r="L14" t="n">
+        <v>27</v>
+      </c>
+      <c r="M14" t="n">
+        <v>48</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1600,6 +2581,33 @@
       <c r="I15" t="n">
         <v>0.95</v>
       </c>
+      <c r="J15" t="n">
+        <v>206</v>
+      </c>
+      <c r="K15" t="n">
+        <v>298</v>
+      </c>
+      <c r="L15" t="n">
+        <v>27</v>
+      </c>
+      <c r="M15" t="n">
+        <v>54</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1631,6 +2639,33 @@
       <c r="I16" t="n">
         <v>0.89</v>
       </c>
+      <c r="J16" t="n">
+        <v>198</v>
+      </c>
+      <c r="K16" t="n">
+        <v>306</v>
+      </c>
+      <c r="L16" t="n">
+        <v>36</v>
+      </c>
+      <c r="M16" t="n">
+        <v>36</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1662,6 +2697,33 @@
       <c r="I17" t="n">
         <v>0.84</v>
       </c>
+      <c r="J17" t="n">
+        <v>192</v>
+      </c>
+      <c r="K17" t="n">
+        <v>298</v>
+      </c>
+      <c r="L17" t="n">
+        <v>20</v>
+      </c>
+      <c r="M17" t="n">
+        <v>52</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1693,6 +2755,33 @@
       <c r="I18" t="n">
         <v>0.75</v>
       </c>
+      <c r="J18" t="n">
+        <v>123</v>
+      </c>
+      <c r="K18" t="n">
+        <v>245</v>
+      </c>
+      <c r="L18" t="n">
+        <v>16</v>
+      </c>
+      <c r="M18" t="n">
+        <v>53</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1724,6 +2813,33 @@
       <c r="I19" t="n">
         <v>0.62</v>
       </c>
+      <c r="J19" t="n">
+        <v>105</v>
+      </c>
+      <c r="K19" t="n">
+        <v>232</v>
+      </c>
+      <c r="L19" t="n">
+        <v>13</v>
+      </c>
+      <c r="M19" t="n">
+        <v>32</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1755,6 +2871,33 @@
       <c r="I20" t="n">
         <v>0.58</v>
       </c>
+      <c r="J20" t="n">
+        <v>173</v>
+      </c>
+      <c r="K20" t="n">
+        <v>270</v>
+      </c>
+      <c r="L20" t="n">
+        <v>30</v>
+      </c>
+      <c r="M20" t="n">
+        <v>45</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1785,6 +2928,33 @@
       </c>
       <c r="I21" t="n">
         <v>0.38</v>
+      </c>
+      <c r="J21" t="n">
+        <v>96</v>
+      </c>
+      <c r="K21" t="n">
+        <v>218</v>
+      </c>
+      <c r="L21" t="n">
+        <v>9</v>
+      </c>
+      <c r="M21" t="n">
+        <v>32</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Dataframes, EDA and Predictive Modelling/EPL_Home_Away.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/EPL_Home_Away.xlsx
@@ -529,84 +529,84 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>55.78</v>
+        <v>42.516</v>
       </c>
       <c r="D2" t="n">
-        <v>18.493</v>
+        <v>16.256</v>
       </c>
       <c r="E2" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I2" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
-        <v>409</v>
+        <v>339</v>
       </c>
       <c r="K2" t="n">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="L2" t="n">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N2" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>43.575</v>
+        <v>55.78</v>
       </c>
       <c r="D3" t="n">
-        <v>21.523</v>
+        <v>18.493</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
         <v>49</v>
@@ -615,13 +615,13 @@
         <v>2.58</v>
       </c>
       <c r="J3" t="n">
-        <v>284</v>
+        <v>409</v>
       </c>
       <c r="K3" t="n">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="L3" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="M3" t="n">
         <v>30</v>
@@ -630,41 +630,41 @@
         <v>0.63</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P3" t="n">
         <v>0.37</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.79</v>
+        <v>0.68</v>
       </c>
       <c r="R3" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>39.873</v>
+        <v>43.575</v>
       </c>
       <c r="D4" t="n">
-        <v>16.102</v>
+        <v>21.523</v>
       </c>
       <c r="E4" t="n">
         <v>48</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
         <v>49</v>
@@ -673,16 +673,16 @@
         <v>2.58</v>
       </c>
       <c r="J4" t="n">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="K4" t="n">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="L4" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M4" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
         <v>0.63</v>
@@ -694,10 +694,10 @@
         <v>0.37</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="R4" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -761,117 +761,117 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>52.681</v>
+        <v>39.641</v>
       </c>
       <c r="D6" t="n">
-        <v>22.102</v>
+        <v>26.905</v>
       </c>
       <c r="E6" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="J6" t="n">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L6" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="M6" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="O6" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="P6" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
       <c r="R6" t="n">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>40.552</v>
+        <v>53.642</v>
       </c>
       <c r="D7" t="n">
-        <v>28.088</v>
+        <v>21.903</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="n">
+        <v>25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>39</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J7" t="n">
+        <v>337</v>
+      </c>
+      <c r="K7" t="n">
+        <v>205</v>
+      </c>
+      <c r="L7" t="n">
+        <v>73</v>
+      </c>
+      <c r="M7" t="n">
         <v>22</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>38</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>331</v>
-      </c>
-      <c r="K7" t="n">
-        <v>247</v>
-      </c>
-      <c r="L7" t="n">
-        <v>52</v>
-      </c>
-      <c r="M7" t="n">
-        <v>31</v>
       </c>
       <c r="N7" t="n">
         <v>0.47</v>
       </c>
       <c r="O7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R7" t="n">
         <v>0.21</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.47</v>
       </c>
     </row>
     <row r="8">
@@ -881,171 +881,171 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>38.547</v>
+        <v>41.252</v>
       </c>
       <c r="D8" t="n">
-        <v>31.192</v>
+        <v>31.473</v>
       </c>
       <c r="E8" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="K8" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L8" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M8" t="n">
         <v>43</v>
       </c>
       <c r="N8" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="R8" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>27.776</v>
+        <v>45.108</v>
       </c>
       <c r="D9" t="n">
-        <v>31.795</v>
+        <v>26.599</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I9" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="J9" t="n">
-        <v>235</v>
+        <v>381</v>
       </c>
       <c r="K9" t="n">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="L9" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="M9" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N9" t="n">
-        <v>0.55</v>
+        <v>0.84</v>
       </c>
       <c r="O9" t="n">
         <v>0.05</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.65</v>
+        <v>0.53</v>
       </c>
       <c r="R9" t="n">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>45.108</v>
+        <v>27.211</v>
       </c>
       <c r="D10" t="n">
-        <v>26.599</v>
+        <v>30.531</v>
       </c>
       <c r="E10" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="J10" t="n">
-        <v>381</v>
+        <v>227</v>
       </c>
       <c r="K10" t="n">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="L10" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="M10" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N10" t="n">
-        <v>0.84</v>
+        <v>0.58</v>
       </c>
       <c r="O10" t="n">
         <v>0.05</v>
       </c>
       <c r="P10" t="n">
-        <v>0.16</v>
+        <v>0.37</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="R10" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="11">
@@ -1116,25 +1116,25 @@
         <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>29.54</v>
+        <v>30.297</v>
       </c>
       <c r="D12" t="n">
-        <v>32.575</v>
+        <v>31.082</v>
       </c>
       <c r="E12" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F12" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H12" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I12" t="n">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="J12" t="n">
         <v>266</v>
@@ -1143,25 +1143,25 @@
         <v>229</v>
       </c>
       <c r="L12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M12" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
         <v>0.47</v>
       </c>
       <c r="O12" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="P12" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="R12" t="n">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="13">
@@ -1171,55 +1171,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>25.117</v>
+        <v>24.932</v>
       </c>
       <c r="D13" t="n">
-        <v>21.554</v>
+        <v>19.353</v>
       </c>
       <c r="E13" t="n">
         <v>27</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>26</v>
       </c>
       <c r="I13" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="J13" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K13" t="n">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="L13" t="n">
         <v>25</v>
       </c>
       <c r="M13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N13" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="O13" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="P13" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="R13" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
@@ -1229,55 +1229,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>38.337</v>
+        <v>40.878</v>
       </c>
       <c r="D14" t="n">
-        <v>28.334</v>
+        <v>30.486</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14" t="n">
         <v>-2</v>
       </c>
       <c r="H14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="J14" t="n">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="K14" t="n">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L14" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M14" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N14" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="O14" t="n">
         <v>0.05</v>
       </c>
       <c r="P14" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="R14" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
@@ -1287,171 +1287,171 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>25.392</v>
+        <v>26.363</v>
       </c>
       <c r="D15" t="n">
-        <v>27.015</v>
+        <v>28.344</v>
       </c>
       <c r="E15" t="n">
         <v>29</v>
       </c>
       <c r="F15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H15" t="n">
         <v>25</v>
       </c>
       <c r="I15" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="J15" t="n">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="K15" t="n">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="L15" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" t="n">
         <v>34</v>
       </c>
       <c r="N15" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="O15" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="P15" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="R15" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>26.633</v>
+        <v>36.871</v>
       </c>
       <c r="D16" t="n">
-        <v>28.183</v>
+        <v>25.418</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="J16" t="n">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="K16" t="n">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="L16" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="M16" t="n">
         <v>33</v>
       </c>
       <c r="N16" t="n">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O16" t="n">
-        <v>0.39</v>
+        <v>0.28</v>
       </c>
       <c r="P16" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.39</v>
+        <v>0.5</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="n">
-        <v>36.871</v>
+        <v>25.532</v>
       </c>
       <c r="D17" t="n">
-        <v>25.418</v>
+        <v>26.048</v>
       </c>
       <c r="E17" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
+        <v>28</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>19</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J17" t="n">
+        <v>210</v>
+      </c>
+      <c r="K17" t="n">
+        <v>226</v>
+      </c>
+      <c r="L17" t="n">
         <v>29</v>
       </c>
-      <c r="G17" t="n">
-        <v>-3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>21</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="J17" t="n">
-        <v>277</v>
-      </c>
-      <c r="K17" t="n">
-        <v>221</v>
-      </c>
-      <c r="L17" t="n">
-        <v>49</v>
-      </c>
       <c r="M17" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="O17" t="n">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
       <c r="P17" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="18">
@@ -1464,46 +1464,46 @@
         <v>19</v>
       </c>
       <c r="C18" t="n">
-        <v>36.246</v>
+        <v>37.584</v>
       </c>
       <c r="D18" t="n">
-        <v>25.991</v>
+        <v>26.219</v>
       </c>
       <c r="E18" t="n">
         <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="H18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I18" t="n">
-        <v>1.05</v>
+        <v>0.89</v>
       </c>
       <c r="J18" t="n">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="K18" t="n">
         <v>227</v>
       </c>
       <c r="L18" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M18" t="n">
         <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="O18" t="n">
         <v>0.32</v>
       </c>
       <c r="P18" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="Q18" t="n">
         <v>0.37</v>
@@ -1519,55 +1519,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" t="n">
-        <v>22.053</v>
+        <v>24.987</v>
       </c>
       <c r="D19" t="n">
-        <v>25.038</v>
+        <v>27.124</v>
       </c>
       <c r="E19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G19" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H19" t="n">
         <v>11</v>
       </c>
       <c r="I19" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="J19" t="n">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="K19" t="n">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="L19" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M19" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N19" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="O19" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P19" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="R19" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="20">
@@ -1577,55 +1577,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" t="n">
-        <v>17.844</v>
+        <v>18.045</v>
       </c>
       <c r="D20" t="n">
-        <v>32.981</v>
+        <v>35.466</v>
       </c>
       <c r="E20" t="n">
         <v>12</v>
       </c>
       <c r="F20" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G20" t="n">
-        <v>-24</v>
+        <v>-30</v>
       </c>
       <c r="H20" t="n">
         <v>8</v>
       </c>
       <c r="I20" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="J20" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K20" t="n">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="L20" t="n">
         <v>23</v>
       </c>
       <c r="M20" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N20" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="O20" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="P20" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="R20" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="21">
@@ -1635,55 +1635,55 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="n">
-        <v>14.754</v>
+        <v>16.373</v>
       </c>
       <c r="D21" t="n">
-        <v>22.722</v>
+        <v>24.158</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G21" t="n">
-        <v>-19</v>
+        <v>-21</v>
       </c>
       <c r="H21" t="n">
         <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="J21" t="n">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="K21" t="n">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N21" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="O21" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="P21" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="R21" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -1804,55 +1804,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>44.258</v>
+        <v>42.057</v>
       </c>
       <c r="D2" t="n">
-        <v>20.382</v>
+        <v>20.197</v>
       </c>
       <c r="E2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="J2" t="n">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K2" t="n">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L2" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M2" t="n">
         <v>24</v>
       </c>
       <c r="N2" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="O2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="P2" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
@@ -1865,34 +1865,34 @@
         <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>35.463</v>
+        <v>34.657</v>
       </c>
       <c r="D3" t="n">
-        <v>29.185</v>
+        <v>29.055</v>
       </c>
       <c r="E3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I3" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="K3" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L3" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M3" t="n">
         <v>43</v>
@@ -1901,16 +1901,16 @@
         <v>0.74</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="Q3" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.47</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.53</v>
       </c>
     </row>
     <row r="4">
@@ -1923,19 +1923,19 @@
         <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>34.183</v>
+        <v>34.023</v>
       </c>
       <c r="D4" t="n">
-        <v>23.563</v>
+        <v>23.145</v>
       </c>
       <c r="E4" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" t="n">
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" t="n">
         <v>34</v>
@@ -1944,13 +1944,13 @@
         <v>1.79</v>
       </c>
       <c r="J4" t="n">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K4" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M4" t="n">
         <v>30</v>
@@ -1974,291 +1974,291 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>30.412</v>
+        <v>32.295</v>
       </c>
       <c r="D5" t="n">
-        <v>36.146</v>
+        <v>34.94</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="K5" t="n">
-        <v>329</v>
+        <v>254</v>
       </c>
       <c r="L5" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M5" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="N5" t="n">
-        <v>0.37</v>
+        <v>0.6</v>
       </c>
       <c r="O5" t="n">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="P5" t="n">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.58</v>
+        <v>0.45</v>
       </c>
       <c r="R5" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>30.209</v>
+        <v>30.566</v>
       </c>
       <c r="D6" t="n">
-        <v>32.006</v>
+        <v>38.789</v>
       </c>
       <c r="E6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
         <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I6" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="J6" t="n">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="K6" t="n">
-        <v>241</v>
+        <v>356</v>
       </c>
       <c r="L6" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M6" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N6" t="n">
-        <v>0.58</v>
+        <v>0.4</v>
       </c>
       <c r="O6" t="n">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="P6" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.42</v>
+        <v>0.6</v>
       </c>
       <c r="R6" t="n">
-        <v>0.53</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>29.762</v>
+        <v>27.355</v>
       </c>
       <c r="D7" t="n">
-        <v>37.813</v>
+        <v>35.375</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F7" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G7" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>25</v>
       </c>
       <c r="I7" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="J7" t="n">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="K7" t="n">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="L7" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M7" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N7" t="n">
-        <v>0.47</v>
+        <v>0.83</v>
       </c>
       <c r="O7" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.47</v>
+        <v>0.67</v>
       </c>
       <c r="R7" t="n">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>28.619</v>
+        <v>30.004</v>
       </c>
       <c r="D8" t="n">
-        <v>35.94</v>
+        <v>37.845</v>
       </c>
       <c r="E8" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F8" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="H8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I8" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="J8" t="n">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="K8" t="n">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="L8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M8" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N8" t="n">
-        <v>0.79</v>
+        <v>0.55</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="P8" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="R8" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>28.568</v>
+        <v>29.762</v>
       </c>
       <c r="D9" t="n">
-        <v>36.226</v>
+        <v>37.813</v>
       </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G9" t="n">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="H9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="J9" t="n">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="K9" t="n">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="L9" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M9" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N9" t="n">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
       <c r="O9" t="n">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
       <c r="P9" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="Q9" t="n">
         <v>0.47</v>
       </c>
       <c r="R9" t="n">
-        <v>0.53</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="10">
@@ -2268,110 +2268,110 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>27.457</v>
+        <v>29.636</v>
       </c>
       <c r="D10" t="n">
-        <v>41.556</v>
+        <v>44.677</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F10" t="n">
+        <v>39</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>26</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>233</v>
+      </c>
+      <c r="K10" t="n">
+        <v>365</v>
+      </c>
+      <c r="L10" t="n">
         <v>38</v>
       </c>
-      <c r="G10" t="n">
-        <v>-11</v>
-      </c>
-      <c r="H10" t="n">
-        <v>23</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="J10" t="n">
-        <v>221</v>
-      </c>
-      <c r="K10" t="n">
-        <v>343</v>
-      </c>
-      <c r="L10" t="n">
-        <v>35</v>
-      </c>
       <c r="M10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="O10" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="P10" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="R10" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>29.951</v>
+        <v>31.307</v>
       </c>
       <c r="D11" t="n">
-        <v>39.089</v>
+        <v>38.599</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F11" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G11" t="n">
         <v>-4</v>
       </c>
       <c r="H11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="J11" t="n">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="K11" t="n">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M11" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N11" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="O11" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="P11" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="R11" t="n">
         <v>0.68</v>
@@ -2380,56 +2380,56 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>31.307</v>
+        <v>30.608</v>
       </c>
       <c r="D12" t="n">
-        <v>38.599</v>
+        <v>39.266</v>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G12" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="H12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="J12" t="n">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="K12" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L12" t="n">
         <v>42</v>
       </c>
       <c r="M12" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N12" t="n">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="O12" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q12" t="n">
         <v>0.26</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.32</v>
       </c>
       <c r="R12" t="n">
         <v>0.68</v>
@@ -2445,52 +2445,52 @@
         <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>32.069</v>
+        <v>31.697</v>
       </c>
       <c r="D13" t="n">
-        <v>30.241</v>
+        <v>31.02</v>
       </c>
       <c r="E13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="H13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="J13" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K13" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L13" t="n">
         <v>45</v>
       </c>
       <c r="M13" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N13" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="O13" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="P13" t="n">
         <v>0.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="R13" t="n">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="14">
@@ -2500,55 +2500,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>23.273</v>
+        <v>23.554</v>
       </c>
       <c r="D14" t="n">
-        <v>33.333</v>
+        <v>36.038</v>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G14" t="n">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="H14" t="n">
         <v>20</v>
       </c>
       <c r="I14" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K14" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="L14" t="n">
         <v>27</v>
       </c>
       <c r="M14" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N14" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="O14" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="P14" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="R14" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
@@ -2561,19 +2561,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>22.377</v>
+        <v>22.178</v>
       </c>
       <c r="D15" t="n">
-        <v>41.597</v>
+        <v>42.558</v>
       </c>
       <c r="E15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="H15" t="n">
         <v>18</v>
@@ -2582,22 +2582,22 @@
         <v>0.95</v>
       </c>
       <c r="J15" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K15" t="n">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M15" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N15" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="O15" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="P15" t="n">
         <v>0.11</v>
@@ -2616,55 +2616,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>26.24</v>
+        <v>24.289</v>
       </c>
       <c r="D16" t="n">
-        <v>31.888</v>
+        <v>30.105</v>
       </c>
       <c r="E16" t="n">
         <v>23</v>
       </c>
       <c r="F16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="H16" t="n">
         <v>17</v>
       </c>
       <c r="I16" t="n">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="K16" t="n">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="L16" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N16" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="O16" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="P16" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R16" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="17">
